--- a/generated_output/temp/us-core-medication.xlsx
+++ b/generated_output/temp/us-core-medication.xlsx
@@ -180,7 +180,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -199,7 +199,7 @@
     <t>Medication.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -215,7 +215,7 @@
     <t>Medication.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -234,7 +234,7 @@
     <t>Medication.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -266,7 +266,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -292,7 +292,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -353,7 +353,7 @@
     <t>Medication.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -375,7 +375,7 @@
     <t>Medication.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -440,7 +440,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>Medication.amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {[]} {[]}
+    <t xml:space="preserve">Ratio
 </t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>Medication.ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -581,8 +581,8 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Substance], CanonicalType[http://hl7.org/fhir/StructureDefinition/Medication]]}</t>
+    <t>CodeableConcept
+Reference(Substance|Medication)</t>
   </si>
   <si>
     <t>The actual ingredient or content</t>
@@ -603,7 +603,7 @@
     <t>Medication.ingredient.isActive</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -671,7 +671,7 @@
     <t>Medication.batch.expirationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -737,67 +737,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
